--- a/xlsx/兩院制_intext.xlsx
+++ b/xlsx/兩院制_intext.xlsx
@@ -29,7 +29,7 @@
     <t>立法機構</t>
   </si>
   <si>
-    <t>政策_政策_美國_兩院制</t>
+    <t>体育运动_体育运动_欧洲议会_兩院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E9%99%A2</t>
